--- a/desarrollo/SIC/Documentos/PPSIC_111720.xlsx
+++ b/desarrollo/SIC/Documentos/PPSIC_111720.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PracticandoGit02\Tecnalogia\desarrollo\SIC\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA78CA2-D0C6-42A9-B592-5CBC9CFD008C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D95B5E-C544-436F-9B4D-B23B293C3E28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -860,14 +860,14 @@
     </r>
   </si>
   <si>
-    <t>Rolando Zapata Maravì</t>
+    <t>Rolando Zapata Maravì cambio 17:28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -948,6 +948,14 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1145,7 +1153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1279,6 +1287,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2217,7 +2231,7 @@
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="109.42578125" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2238,7 +2252,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="46" t="s">
         <v>249</v>
       </c>
       <c r="C2" s="2"/>
@@ -2270,7 +2284,7 @@
       <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="47" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
